--- a/finalProject/rl정리.xlsx
+++ b/finalProject/rl정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky06\Git\player_Slayer\last_project\finalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFFD1FE-7DA7-4C82-9DFA-6DBACB679E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FAE30-67B5-47DE-8AB9-261075B65EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{D2EF8B23-F2D2-496F-B45B-1F78ECCD4E58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D2EF8B23-F2D2-496F-B45B-1F78ECCD4E58}"/>
   </bookViews>
   <sheets>
     <sheet name="hyperparameter" sheetId="1" r:id="rId1"/>
@@ -38,159 +38,457 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
-  <si>
-    <t>값</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>trainer_type</t>
-  </si>
-  <si>
-    <t>ppo</t>
-  </si>
-  <si>
-    <t>사용 알고리즘 (Proximal Policy Optimization)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>skull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Mean Reward</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>보상 항목</t>
+  </si>
+  <si>
+    <t>계산 방식</t>
+  </si>
+  <si>
+    <t>목적</t>
+  </si>
+  <si>
+    <t>생존 시간 보상</t>
+  </si>
+  <si>
+    <t>살아있는 시간 증가 유도</t>
+  </si>
+  <si>
+    <t>run03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간당 일정 보상을 부여 (0.2 per sec)</t>
+  </si>
+  <si>
+    <t>위협 밀도 패널티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀집된 위협을 피하도록 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리 감소 패널티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 해골과의 거리가 줄어들면 소폭 패널티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까워지는 행동 억제</t>
+  </si>
+  <si>
+    <t>HP 손실 패널티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지를 받을 때마다 -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 회피 행동 강하게 유도</t>
+  </si>
+  <si>
+    <t>목표 생존 시간 도달 유도</t>
+  </si>
+  <si>
+    <t>에피소드 종료 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>주변 해골이 가까이 많을수록 패널티 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.05 * ∑ 1/d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">죽을 경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10 + 생존비례</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 생존 완료 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>+25</t>
+    </r>
+  </si>
+  <si>
+    <t>hyperparameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epsilon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden_units</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_layers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>max_steps</t>
-  </si>
-  <si>
-    <t>최대 학습 스텝 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time_horizon</t>
-  </si>
-  <si>
-    <t>경험 수집을 위한 시간 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>summary_freq</t>
-  </si>
-  <si>
-    <t>요약 정보 기록 주기</t>
-  </si>
-  <si>
-    <t>batch_size</t>
-  </si>
-  <si>
-    <t>배치 크기</t>
-  </si>
-  <si>
-    <t>buffer_size</t>
-  </si>
-  <si>
-    <t>경험 버퍼 크기</t>
-  </si>
-  <si>
-    <t>learning_rate</t>
-  </si>
-  <si>
-    <t>학습률</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>L2 정규화 가중치</t>
-  </si>
-  <si>
-    <t>epsilon</t>
-  </si>
-  <si>
-    <t>PPO 클리핑 계수</t>
-  </si>
-  <si>
-    <t>lambd</t>
-  </si>
-  <si>
-    <t>GAE(lambda) 값</t>
-  </si>
-  <si>
-    <t>num_epoch</t>
-  </si>
-  <si>
-    <t>업데이트당 학습 반복 횟수</t>
-  </si>
-  <si>
-    <t>reward_signals.extrinsic.gamma</t>
-  </si>
-  <si>
-    <t>미래 보상 할인율</t>
-  </si>
-  <si>
-    <t>reward_signals.extrinsic.strength</t>
-  </si>
-  <si>
-    <t>보상 신호 강도</t>
-  </si>
-  <si>
-    <t>항목 (Parameter)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Mean Reward</t>
-  </si>
-  <si>
-    <t>Std Dev</t>
-  </si>
-  <si>
-    <t>보상 항목</t>
-  </si>
-  <si>
-    <t>계산 방식</t>
-  </si>
-  <si>
-    <t>목적</t>
-  </si>
-  <si>
-    <t>생존 시간 보상</t>
-  </si>
-  <si>
-    <t>살아있는 시간 증가 유도</t>
-  </si>
-  <si>
-    <t>HP 감소 패널티</t>
-  </si>
-  <si>
-    <t>데미지를 피하도록 유도</t>
-  </si>
-  <si>
-    <t>거리 패널티</t>
-  </si>
-  <si>
-    <t>-0.02 × (5 - 거리) (5m 이내)</t>
-  </si>
-  <si>
-    <t>해골과 일정 거리 유지 유도</t>
-  </si>
-  <si>
-    <t>에피소드 종료 시 보상 (생존)</t>
-  </si>
-  <si>
-    <t>60초 생존 유도</t>
-  </si>
-  <si>
-    <t>에피소드 종료 시 페널티 (사망)</t>
-  </si>
-  <si>
-    <t>죽지 않도록 유도</t>
-  </si>
-  <si>
-    <t>0.1 / 초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.2 * hpLoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해골</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간격</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에이전트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에이전트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투사체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간격</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,9 +516,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -251,62 +585,91 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -322,16 +685,41 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1521,36 +1909,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{687E7438-8279-4C27-8281-D77E5F9FB484}" name="표1" displayName="표1" ref="A2:C15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
-  <autoFilter ref="A2:C15" xr:uid="{687E7438-8279-4C27-8281-D77E5F9FB484}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{05F16A98-E57C-4635-82BA-D3F2B5B4D184}" name="항목 (Parameter)" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1889C886-60EC-4B29-A5A9-AA92A17DC8AF}" name="값" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{8DCA5EBC-F983-44BE-8818-8AB72EA11B31}" name="설명" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{616B8C93-B73D-4ABE-8DE8-19A7D1A1A54E}" name="표8" displayName="표8" ref="A2:B24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
+  <autoFilter ref="A2:B24" xr:uid="{616B8C93-B73D-4ABE-8DE8-19A7D1A1A54E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3E2ACF3E-8637-413F-A4F6-D779747E47E9}" name="hyperparameter" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{36373D3E-7AF6-4737-9DDA-889F8801EF31}" name="수치" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42C4768D-FC66-451E-91C0-CF115E5F973A}" name="표2" displayName="표2" ref="A2:C52" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42C4768D-FC66-451E-91C0-CF115E5F973A}" name="표2" displayName="표2" ref="A2:C52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:C52" xr:uid="{42C4768D-FC66-451E-91C0-CF115E5F973A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2F5F9803-4229-4730-A16A-9B2DA1FF7C96}" name="Step" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B09EE2EA-0B3A-4D70-8C3F-0AC61D6C19F0}" name="Mean Reward" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{55EEBF77-2A38-4D36-9BD0-02948FD421A6}" name="Std Dev" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{2F5F9803-4229-4730-A16A-9B2DA1FF7C96}" name="Step" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B09EE2EA-0B3A-4D70-8C3F-0AC61D6C19F0}" name="Mean Reward" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{55EEBF77-2A38-4D36-9BD0-02948FD421A6}" name="Std Dev" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{83ACFA17-C61D-4B07-96D5-3C798E3174A1}" name="표3" displayName="표3" ref="A2:C7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{83ACFA17-C61D-4B07-96D5-3C798E3174A1}" name="표3" displayName="표3" ref="A2:C7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6">
   <autoFilter ref="A2:C7" xr:uid="{83ACFA17-C61D-4B07-96D5-3C798E3174A1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5B237197-DC8F-4D40-9835-AED4C77E0789}" name="보상 항목" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E3D42BDA-398F-4D7C-9A08-4E1E0ACC7F4A}" name="계산 방식" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E5FD9667-37B0-472C-92AB-C2B7FA8F8510}" name="목적" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E3D42BDA-398F-4D7C-9A08-4E1E0ACC7F4A}" name="계산 방식" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E5FD9667-37B0-472C-92AB-C2B7FA8F8510}" name="목적" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1873,211 +2260,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E4A10-8713-47E4-9B76-667467B92AFB}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7">
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B8" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10240</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,31 +2484,31 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>10000</v>
       </c>
@@ -2131,7 +2519,7 @@
         <v>31.215</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>20000</v>
       </c>
@@ -2142,7 +2530,7 @@
         <v>24.097000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>30000</v>
       </c>
@@ -2153,7 +2541,7 @@
         <v>30.329000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>40000</v>
       </c>
@@ -2164,7 +2552,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>50000</v>
       </c>
@@ -2175,7 +2563,7 @@
         <v>28.411999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>60000</v>
       </c>
@@ -2186,7 +2574,7 @@
         <v>28.567</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>70000</v>
       </c>
@@ -2197,7 +2585,7 @@
         <v>24.888999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>80000</v>
       </c>
@@ -2208,7 +2596,7 @@
         <v>23.023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>90000</v>
       </c>
@@ -2219,7 +2607,7 @@
         <v>15.096</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>100000</v>
       </c>
@@ -2230,7 +2618,7 @@
         <v>12.259</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>110000</v>
       </c>
@@ -2241,7 +2629,7 @@
         <v>10.659000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>120000</v>
       </c>
@@ -2252,7 +2640,7 @@
         <v>7.1660000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>130000</v>
       </c>
@@ -2263,7 +2651,7 @@
         <v>6.0060000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>140000</v>
       </c>
@@ -2274,7 +2662,7 @@
         <v>6.0209999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>150000</v>
       </c>
@@ -2285,7 +2673,7 @@
         <v>4.468</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>160000</v>
       </c>
@@ -2296,7 +2684,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>170000</v>
       </c>
@@ -2307,7 +2695,7 @@
         <v>4.016</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>180000</v>
       </c>
@@ -2318,7 +2706,7 @@
         <v>4.2169999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>190000</v>
       </c>
@@ -2329,7 +2717,7 @@
         <v>3.8210000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>200000</v>
       </c>
@@ -2340,7 +2728,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>210000</v>
       </c>
@@ -2351,7 +2739,7 @@
         <v>3.3010000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>220000</v>
       </c>
@@ -2362,7 +2750,7 @@
         <v>2.6539999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>230000</v>
       </c>
@@ -2373,7 +2761,7 @@
         <v>3.012</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>240000</v>
       </c>
@@ -2384,7 +2772,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>250000</v>
       </c>
@@ -2395,7 +2783,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>260000</v>
       </c>
@@ -2406,7 +2794,7 @@
         <v>2.5720000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>270000</v>
       </c>
@@ -2417,7 +2805,7 @@
         <v>2.2189999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>280000</v>
       </c>
@@ -2428,7 +2816,7 @@
         <v>2.8690000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>290000</v>
       </c>
@@ -2439,7 +2827,7 @@
         <v>2.1749999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>300000</v>
       </c>
@@ -2450,7 +2838,7 @@
         <v>2.1219999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>310000</v>
       </c>
@@ -2461,7 +2849,7 @@
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>320000</v>
       </c>
@@ -2472,7 +2860,7 @@
         <v>2.2050000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>330000</v>
       </c>
@@ -2483,7 +2871,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>340000</v>
       </c>
@@ -2494,7 +2882,7 @@
         <v>2.2650000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>350000</v>
       </c>
@@ -2505,7 +2893,7 @@
         <v>2.4849999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>360000</v>
       </c>
@@ -2516,7 +2904,7 @@
         <v>2.4209999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>370000</v>
       </c>
@@ -2527,7 +2915,7 @@
         <v>2.528</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>380000</v>
       </c>
@@ -2538,7 +2926,7 @@
         <v>3.4369999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>390000</v>
       </c>
@@ -2549,7 +2937,7 @@
         <v>2.8610000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>400000</v>
       </c>
@@ -2560,7 +2948,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>410000</v>
       </c>
@@ -2571,7 +2959,7 @@
         <v>3.3820000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>420000</v>
       </c>
@@ -2582,7 +2970,7 @@
         <v>5.6369999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>430000</v>
       </c>
@@ -2593,7 +2981,7 @@
         <v>3.9689999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>440000</v>
       </c>
@@ -2604,7 +2992,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>450000</v>
       </c>
@@ -2615,7 +3003,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>460000</v>
       </c>
@@ -2626,7 +3014,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>470000</v>
       </c>
@@ -2637,7 +3025,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>480000</v>
       </c>
@@ -2648,7 +3036,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>490000</v>
       </c>
@@ -2659,7 +3047,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>500000</v>
       </c>
@@ -2687,88 +3075,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF9CA9F-5273-4D66-A44D-3A5199F0ECD9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/finalProject/rl정리.xlsx
+++ b/finalProject/rl정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky06\Git\player_Slayer\last_project\finalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FAE30-67B5-47DE-8AB9-261075B65EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC60E5-065A-4F5A-8DE4-1A986BA499FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D2EF8B23-F2D2-496F-B45B-1F78ECCD4E58}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{D2EF8B23-F2D2-496F-B45B-1F78ECCD4E58}"/>
   </bookViews>
   <sheets>
     <sheet name="hyperparameter" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>skull</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,12 +491,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>run003, run006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,14 +511,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -585,9 +581,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,32 +609,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -631,6 +663,69 @@
         <sz val="11"/>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -673,6 +768,17 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -690,49 +796,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="3"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1909,17 +1972,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{616B8C93-B73D-4ABE-8DE8-19A7D1A1A54E}" name="표8" displayName="표8" ref="A2:B24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{616B8C93-B73D-4ABE-8DE8-19A7D1A1A54E}" name="표8" displayName="표8" ref="A2:B24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:B24" xr:uid="{616B8C93-B73D-4ABE-8DE8-19A7D1A1A54E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3E2ACF3E-8637-413F-A4F6-D779747E47E9}" name="hyperparameter" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{36373D3E-7AF6-4737-9DDA-889F8801EF31}" name="수치" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3E2ACF3E-8637-413F-A4F6-D779747E47E9}" name="hyperparameter" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{36373D3E-7AF6-4737-9DDA-889F8801EF31}" name="수치" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F71F5ACF-8107-4A0A-80A5-9C8F77161BCA}" name="표8_2" displayName="표8_2" ref="D2:E24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="D2:E24" xr:uid="{F71F5ACF-8107-4A0A-80A5-9C8F77161BCA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7573EA06-075C-4254-B7F8-24ECD0D6A97E}" name="hyperparameter" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{789ACC16-56BF-4F33-826A-FD127541D274}" name="수치" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42C4768D-FC66-451E-91C0-CF115E5F973A}" name="표2" displayName="표2" ref="A2:C52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:C52" xr:uid="{42C4768D-FC66-451E-91C0-CF115E5F973A}"/>
   <tableColumns count="3">
@@ -1931,13 +2005,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{83ACFA17-C61D-4B07-96D5-3C798E3174A1}" name="표3" displayName="표3" ref="A2:C7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{83ACFA17-C61D-4B07-96D5-3C798E3174A1}" name="표3" displayName="표3" ref="A2:C7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:C7" xr:uid="{83ACFA17-C61D-4B07-96D5-3C798E3174A1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B237197-DC8F-4D40-9835-AED4C77E0789}" name="보상 항목" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5B237197-DC8F-4D40-9835-AED4C77E0789}" name="보상 항목" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{E3D42BDA-398F-4D7C-9A08-4E1E0ACC7F4A}" name="계산 방식" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E5FD9667-37B0-472C-92AB-C2B7FA8F8510}" name="목적" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E5FD9667-37B0-472C-92AB-C2B7FA8F8510}" name="목적" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2260,218 +2334,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E4A10-8713-47E4-9B76-667467B92AFB}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="36.375" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="D1" s="7">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>2048</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>40960</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5">
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7" t="b">
+      <c r="B10" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7" t="b">
+      <c r="B18" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="D23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>1.5</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2480,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFF548B-C80F-4C72-840F-8B32FB89F494}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2491,11 +2711,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -3076,7 +3296,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3087,11 +3307,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -3105,57 +3325,57 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
